--- a/PDA_formative_assessment/Loans_Database_Table_compiled.xlsx
+++ b/PDA_formative_assessment/Loans_Database_Table_compiled.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Dev\Developer\PDA_formative_assessment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D71EDF-01AB-4C7C-A144-5C055428E909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -70,8 +64,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,14 +128,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -188,7 +174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,27 +206,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,24 +240,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -465,17 +415,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1086</v>
       </c>
@@ -548,7 +495,7 @@
         <v>360</v>
       </c>
       <c r="K2">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="L2">
         <v>1.2</v>
@@ -557,7 +504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1087</v>
       </c>
@@ -598,7 +545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>1091</v>
       </c>
@@ -639,7 +586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1095</v>
       </c>
@@ -680,7 +627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>1097</v>
       </c>
@@ -721,7 +668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>1098</v>
       </c>
@@ -762,7 +709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>1100</v>
       </c>
@@ -803,7 +750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>1106</v>
       </c>
@@ -844,7 +791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>1109</v>
       </c>
@@ -885,7 +832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>1112</v>
       </c>
@@ -926,7 +873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>1114</v>
       </c>
@@ -967,7 +914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>1116</v>
       </c>
@@ -1008,7 +955,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>1119</v>
       </c>
@@ -1049,7 +996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>1120</v>
       </c>
@@ -1090,7 +1037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>1123</v>
       </c>
@@ -1131,7 +1078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>1131</v>
       </c>
@@ -1172,7 +1119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>1136</v>
       </c>
@@ -1213,7 +1160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>1137</v>
       </c>
@@ -1254,7 +1201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>1138</v>
       </c>
@@ -1295,7 +1242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>1144</v>
       </c>
@@ -1336,7 +1283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>1146</v>
       </c>
@@ -1377,7 +1324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>1151</v>
       </c>
@@ -1418,7 +1365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>1155</v>
       </c>
@@ -1459,7 +1406,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>1157</v>
       </c>
@@ -1500,7 +1447,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>1164</v>
       </c>
@@ -1541,7 +1488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>1179</v>
       </c>
@@ -1582,7 +1529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>1186</v>
       </c>
@@ -1623,7 +1570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>1194</v>
       </c>
@@ -1664,7 +1611,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>1195</v>
       </c>
@@ -1705,7 +1652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>1197</v>
       </c>
@@ -1713,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1746,7 +1693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>1198</v>
       </c>
@@ -1787,7 +1734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>1199</v>
       </c>
@@ -1828,7 +1775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>1205</v>
       </c>
@@ -1869,7 +1816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>1206</v>
       </c>
@@ -1910,7 +1857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>1207</v>
       </c>
@@ -1951,7 +1898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>1213</v>
       </c>
@@ -1992,7 +1939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>1222</v>
       </c>
@@ -2033,7 +1980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>1225</v>
       </c>
@@ -2074,7 +2021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>1228</v>
       </c>
@@ -2115,7 +2062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>1233</v>
       </c>
@@ -2156,7 +2103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>1238</v>
       </c>
@@ -2197,7 +2144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>1241</v>
       </c>
@@ -2238,7 +2185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>1243</v>
       </c>
@@ -2279,7 +2226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>1245</v>
       </c>
@@ -2320,7 +2267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>1248</v>
       </c>
@@ -2361,7 +2308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>1250</v>
       </c>
@@ -2402,7 +2349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>1253</v>
       </c>
@@ -2443,7 +2390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>1255</v>
       </c>
@@ -2484,7 +2431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>1256</v>
       </c>
@@ -2525,7 +2472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>1259</v>
       </c>
@@ -2566,7 +2513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>1263</v>
       </c>
@@ -2607,7 +2554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53">
         <v>1264</v>
       </c>
@@ -2648,7 +2595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>1265</v>
       </c>
@@ -2689,7 +2636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>1266</v>
       </c>
@@ -2730,7 +2677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>1267</v>
       </c>
@@ -2771,7 +2718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>1273</v>
       </c>
@@ -2812,7 +2759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13">
       <c r="A58">
         <v>1275</v>
       </c>
@@ -2853,7 +2800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>1279</v>
       </c>
@@ -2894,7 +2841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>1280</v>
       </c>
@@ -2902,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -2935,7 +2882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>1282</v>
       </c>
@@ -2976,7 +2923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62">
         <v>1289</v>
       </c>
@@ -3017,7 +2964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>1310</v>
       </c>
@@ -3058,7 +3005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>1316</v>
       </c>
@@ -3099,7 +3046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13">
       <c r="A65">
         <v>1318</v>
       </c>
@@ -3140,7 +3087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13">
       <c r="A66">
         <v>1319</v>
       </c>
@@ -3181,7 +3128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13">
       <c r="A67">
         <v>1322</v>
       </c>
@@ -3222,7 +3169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13">
       <c r="A68">
         <v>1325</v>
       </c>
@@ -3263,7 +3210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13">
       <c r="A69">
         <v>1326</v>
       </c>
@@ -3304,7 +3251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13">
       <c r="A70">
         <v>1327</v>
       </c>
@@ -3345,7 +3292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13">
       <c r="A71">
         <v>1333</v>
       </c>
@@ -3386,7 +3333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13">
       <c r="A72">
         <v>1334</v>
       </c>
@@ -3427,7 +3374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13">
       <c r="A73">
         <v>1343</v>
       </c>
@@ -3468,7 +3415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13">
       <c r="A74">
         <v>1345</v>
       </c>
@@ -3509,7 +3456,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13">
       <c r="A75">
         <v>1349</v>
       </c>
@@ -3550,7 +3497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13">
       <c r="A76">
         <v>1350</v>
       </c>
@@ -3591,7 +3538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13">
       <c r="A77">
         <v>1356</v>
       </c>
@@ -3632,7 +3579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13">
       <c r="A78">
         <v>1357</v>
       </c>
@@ -3673,7 +3620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13">
       <c r="A79">
         <v>1367</v>
       </c>
@@ -3714,7 +3661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13">
       <c r="A80">
         <v>1369</v>
       </c>
@@ -3755,7 +3702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13">
       <c r="A81">
         <v>1370</v>
       </c>
@@ -3796,7 +3743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13">
       <c r="A82">
         <v>1379</v>
       </c>
@@ -3837,7 +3784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13">
       <c r="A83">
         <v>1384</v>
       </c>
@@ -3878,7 +3825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13">
       <c r="A84">
         <v>1385</v>
       </c>
@@ -3919,7 +3866,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13">
       <c r="A85">
         <v>1387</v>
       </c>
@@ -3960,7 +3907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13">
       <c r="A86">
         <v>1391</v>
       </c>
@@ -4001,7 +3948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13">
       <c r="A87">
         <v>1392</v>
       </c>
@@ -4042,7 +3989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13">
       <c r="A88">
         <v>1398</v>
       </c>
@@ -4083,7 +4030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13">
       <c r="A89">
         <v>1401</v>
       </c>
@@ -4091,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="C89">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="D89">
         <v>1.2</v>
@@ -4124,7 +4071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13">
       <c r="A90">
         <v>1404</v>
       </c>
@@ -4165,7 +4112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13">
       <c r="A91">
         <v>1405</v>
       </c>
@@ -4206,7 +4153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13">
       <c r="A92">
         <v>1421</v>
       </c>
@@ -4247,7 +4194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13">
       <c r="A93">
         <v>1422</v>
       </c>
@@ -4288,7 +4235,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13">
       <c r="A94">
         <v>1426</v>
       </c>
@@ -4329,7 +4276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13">
       <c r="A95">
         <v>1430</v>
       </c>
@@ -4370,7 +4317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13">
       <c r="A96">
         <v>1431</v>
       </c>
@@ -4411,7 +4358,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13">
       <c r="A97">
         <v>1432</v>
       </c>
@@ -4452,7 +4399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13">
       <c r="A98">
         <v>1439</v>
       </c>
@@ -4493,7 +4440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13">
       <c r="A99">
         <v>1443</v>
       </c>
@@ -4534,7 +4481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13">
       <c r="A100">
         <v>1448</v>
       </c>
@@ -4575,7 +4522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13">
       <c r="A101">
         <v>1449</v>
       </c>
@@ -4616,7 +4563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13">
       <c r="A102">
         <v>1451</v>
       </c>
@@ -4657,7 +4604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13">
       <c r="A103">
         <v>1465</v>
       </c>
@@ -4698,7 +4645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13">
       <c r="A104">
         <v>1469</v>
       </c>
@@ -4739,7 +4686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13">
       <c r="A105">
         <v>1473</v>
       </c>
@@ -4780,7 +4727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13">
       <c r="A106">
         <v>1478</v>
       </c>
@@ -4821,7 +4768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13">
       <c r="A107">
         <v>1482</v>
       </c>
@@ -4862,7 +4809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13">
       <c r="A108">
         <v>1487</v>
       </c>
@@ -4903,7 +4850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13">
       <c r="A109">
         <v>1488</v>
       </c>
@@ -4944,7 +4891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13">
       <c r="A110">
         <v>1489</v>
       </c>
@@ -4985,7 +4932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13">
       <c r="A111">
         <v>1491</v>
       </c>
@@ -5026,7 +4973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13">
       <c r="A112">
         <v>1492</v>
       </c>
@@ -5067,7 +5014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13">
       <c r="A113">
         <v>1493</v>
       </c>
@@ -5108,7 +5055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13">
       <c r="A114">
         <v>1497</v>
       </c>
@@ -5149,7 +5096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13">
       <c r="A115">
         <v>1498</v>
       </c>
@@ -5190,7 +5137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13">
       <c r="A116">
         <v>1504</v>
       </c>
@@ -5231,7 +5178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13">
       <c r="A117">
         <v>1507</v>
       </c>
@@ -5272,7 +5219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13">
       <c r="A118">
         <v>1508</v>
       </c>
@@ -5280,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="C118">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -5313,7 +5260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13">
       <c r="A119">
         <v>1514</v>
       </c>
@@ -5354,7 +5301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13">
       <c r="A120">
         <v>1516</v>
       </c>
@@ -5395,7 +5342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13">
       <c r="A121">
         <v>1518</v>
       </c>
@@ -5436,7 +5383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13">
       <c r="A122">
         <v>1519</v>
       </c>
@@ -5477,7 +5424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13">
       <c r="A123">
         <v>1520</v>
       </c>
@@ -5518,7 +5465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13">
       <c r="A124">
         <v>1528</v>
       </c>
@@ -5559,7 +5506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13">
       <c r="A125">
         <v>1529</v>
       </c>
@@ -5600,7 +5547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13">
       <c r="A126">
         <v>1531</v>
       </c>
@@ -5641,7 +5588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13">
       <c r="A127">
         <v>1532</v>
       </c>
@@ -5682,7 +5629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13">
       <c r="A128">
         <v>1535</v>
       </c>
@@ -5723,7 +5670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13">
       <c r="A129">
         <v>1536</v>
       </c>
@@ -5764,7 +5711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13">
       <c r="A130">
         <v>1541</v>
       </c>
@@ -5805,7 +5752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13">
       <c r="A131">
         <v>1543</v>
       </c>
@@ -5846,7 +5793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13">
       <c r="A132">
         <v>1546</v>
       </c>
@@ -5887,7 +5834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13">
       <c r="A133">
         <v>1552</v>
       </c>
@@ -5928,7 +5875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13">
       <c r="A134">
         <v>1560</v>
       </c>
@@ -5969,7 +5916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13">
       <c r="A135">
         <v>1562</v>
       </c>
@@ -6010,7 +5957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13">
       <c r="A136">
         <v>1565</v>
       </c>
@@ -6051,7 +5998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13">
       <c r="A137">
         <v>1570</v>
       </c>
@@ -6092,7 +6039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13">
       <c r="A138">
         <v>1572</v>
       </c>
@@ -6133,7 +6080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13">
       <c r="A139">
         <v>1574</v>
       </c>
@@ -6174,7 +6121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13">
       <c r="A140">
         <v>1577</v>
       </c>
@@ -6215,7 +6162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13">
       <c r="A141">
         <v>1578</v>
       </c>
@@ -6256,7 +6203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13">
       <c r="A142">
         <v>1579</v>
       </c>
@@ -6297,7 +6244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13">
       <c r="A143">
         <v>1580</v>
       </c>
@@ -6338,7 +6285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13">
       <c r="A144">
         <v>1581</v>
       </c>
@@ -6379,7 +6326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13">
       <c r="A145">
         <v>1585</v>
       </c>
@@ -6420,7 +6367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13">
       <c r="A146">
         <v>1586</v>
       </c>
@@ -6461,7 +6408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13">
       <c r="A147">
         <v>1594</v>
       </c>
@@ -6469,7 +6416,7 @@
         <v>1</v>
       </c>
       <c r="C147">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -6502,7 +6449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13">
       <c r="A148">
         <v>1603</v>
       </c>
@@ -6543,7 +6490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13">
       <c r="A149">
         <v>1606</v>
       </c>
@@ -6584,7 +6531,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13">
       <c r="A150">
         <v>1608</v>
       </c>
@@ -6625,7 +6572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13">
       <c r="A151">
         <v>1610</v>
       </c>
@@ -6666,7 +6613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13">
       <c r="A152">
         <v>1616</v>
       </c>
@@ -6707,7 +6654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13">
       <c r="A153">
         <v>1630</v>
       </c>
@@ -6748,7 +6695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13">
       <c r="A154">
         <v>1633</v>
       </c>
@@ -6789,7 +6736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13">
       <c r="A155">
         <v>1634</v>
       </c>
@@ -6830,7 +6777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13">
       <c r="A156">
         <v>1636</v>
       </c>
@@ -6871,7 +6818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13">
       <c r="A157">
         <v>1637</v>
       </c>
@@ -6912,7 +6859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13">
       <c r="A158">
         <v>1639</v>
       </c>
@@ -6953,7 +6900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13">
       <c r="A159">
         <v>1640</v>
       </c>
@@ -6994,7 +6941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13">
       <c r="A160">
         <v>1641</v>
       </c>
@@ -7035,7 +6982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13">
       <c r="A161">
         <v>1643</v>
       </c>
@@ -7076,7 +7023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13">
       <c r="A162">
         <v>1644</v>
       </c>
@@ -7117,7 +7064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13">
       <c r="A163">
         <v>1647</v>
       </c>
@@ -7158,7 +7105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13">
       <c r="A164">
         <v>1653</v>
       </c>
@@ -7199,7 +7146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13">
       <c r="A165">
         <v>1656</v>
       </c>
@@ -7240,7 +7187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13">
       <c r="A166">
         <v>1657</v>
       </c>
@@ -7281,7 +7228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13">
       <c r="A167">
         <v>1658</v>
       </c>
@@ -7322,7 +7269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13">
       <c r="A168">
         <v>1664</v>
       </c>
@@ -7363,7 +7310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13">
       <c r="A169">
         <v>1665</v>
       </c>
@@ -7404,7 +7351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13">
       <c r="A170">
         <v>1666</v>
       </c>
@@ -7445,7 +7392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13">
       <c r="A171">
         <v>1669</v>
       </c>
@@ -7486,7 +7433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13">
       <c r="A172">
         <v>1671</v>
       </c>
@@ -7527,7 +7474,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13">
       <c r="A173">
         <v>1673</v>
       </c>
@@ -7568,7 +7515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13">
       <c r="A174">
         <v>1674</v>
       </c>
@@ -7609,7 +7556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13">
       <c r="A175">
         <v>1677</v>
       </c>
@@ -7650,7 +7597,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13">
       <c r="A176">
         <v>1682</v>
       </c>
@@ -7658,7 +7605,7 @@
         <v>1</v>
       </c>
       <c r="C176">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="D176">
         <v>3</v>
@@ -7691,7 +7638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13">
       <c r="A177">
         <v>1688</v>
       </c>
@@ -7732,7 +7679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13">
       <c r="A178">
         <v>1691</v>
       </c>
@@ -7773,7 +7720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13">
       <c r="A179">
         <v>1692</v>
       </c>
@@ -7814,7 +7761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13">
       <c r="A180">
         <v>1693</v>
       </c>
@@ -7855,7 +7802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13">
       <c r="A181">
         <v>1698</v>
       </c>
@@ -7896,7 +7843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13">
       <c r="A182">
         <v>1699</v>
       </c>
@@ -7937,7 +7884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13">
       <c r="A183">
         <v>1702</v>
       </c>
@@ -7978,7 +7925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13">
       <c r="A184">
         <v>1708</v>
       </c>
@@ -8019,7 +7966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13">
       <c r="A185">
         <v>1711</v>
       </c>
@@ -8060,7 +8007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13">
       <c r="A186">
         <v>1713</v>
       </c>
@@ -8101,7 +8048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13">
       <c r="A187">
         <v>1715</v>
       </c>
@@ -8142,7 +8089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13">
       <c r="A188">
         <v>1716</v>
       </c>
@@ -8183,7 +8130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13">
       <c r="A189">
         <v>1720</v>
       </c>
@@ -8224,7 +8171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13">
       <c r="A190">
         <v>1722</v>
       </c>
@@ -8265,7 +8212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13">
       <c r="A191">
         <v>1726</v>
       </c>
@@ -8306,7 +8253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13">
       <c r="A192">
         <v>1732</v>
       </c>
@@ -8347,7 +8294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13">
       <c r="A193">
         <v>1734</v>
       </c>
@@ -8388,7 +8335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13">
       <c r="A194">
         <v>1736</v>
       </c>
@@ -8429,7 +8376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13">
       <c r="A195">
         <v>1743</v>
       </c>
@@ -8470,7 +8417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13">
       <c r="A196">
         <v>1744</v>
       </c>
@@ -8511,7 +8458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13">
       <c r="A197">
         <v>1749</v>
       </c>
@@ -8552,7 +8499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13">
       <c r="A198">
         <v>1750</v>
       </c>
@@ -8593,7 +8540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13">
       <c r="A199">
         <v>1751</v>
       </c>
@@ -8634,7 +8581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13">
       <c r="A200">
         <v>1754</v>
       </c>
@@ -8675,7 +8622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13">
       <c r="A201">
         <v>1758</v>
       </c>
@@ -8716,7 +8663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13">
       <c r="A202">
         <v>1760</v>
       </c>
@@ -8757,7 +8704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13">
       <c r="A203">
         <v>1761</v>
       </c>
@@ -8798,7 +8745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13">
       <c r="A204">
         <v>1765</v>
       </c>
@@ -8839,7 +8786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13">
       <c r="A205">
         <v>1768</v>
       </c>
@@ -8847,7 +8794,7 @@
         <v>1</v>
       </c>
       <c r="C205">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -8880,7 +8827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13">
       <c r="A206">
         <v>1770</v>
       </c>
@@ -8921,7 +8868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13">
       <c r="A207">
         <v>1776</v>
       </c>
@@ -8962,7 +8909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13">
       <c r="A208">
         <v>1778</v>
       </c>
@@ -9003,7 +8950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13">
       <c r="A209">
         <v>1784</v>
       </c>
@@ -9044,7 +8991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13">
       <c r="A210">
         <v>1786</v>
       </c>
@@ -9085,7 +9032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13">
       <c r="A211">
         <v>1788</v>
       </c>
@@ -9126,7 +9073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13">
       <c r="A212">
         <v>1790</v>
       </c>
@@ -9167,7 +9114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13">
       <c r="A213">
         <v>1792</v>
       </c>
@@ -9208,7 +9155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13">
       <c r="A214">
         <v>1798</v>
       </c>
@@ -9249,7 +9196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13">
       <c r="A215">
         <v>1800</v>
       </c>
@@ -9290,7 +9237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13">
       <c r="A216">
         <v>1806</v>
       </c>
@@ -9331,7 +9278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13">
       <c r="A217">
         <v>1807</v>
       </c>
@@ -9372,7 +9319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13">
       <c r="A218">
         <v>1811</v>
       </c>
@@ -9413,7 +9360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13">
       <c r="A219">
         <v>1813</v>
       </c>
@@ -9454,7 +9401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13">
       <c r="A220">
         <v>1814</v>
       </c>
@@ -9495,7 +9442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13">
       <c r="A221">
         <v>1819</v>
       </c>
@@ -9536,7 +9483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13">
       <c r="A222">
         <v>1824</v>
       </c>
@@ -9577,7 +9524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13">
       <c r="A223">
         <v>1825</v>
       </c>
@@ -9618,7 +9565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13">
       <c r="A224">
         <v>1835</v>
       </c>
@@ -9659,7 +9606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13">
       <c r="A225">
         <v>1836</v>
       </c>
@@ -9700,7 +9647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13">
       <c r="A226">
         <v>1841</v>
       </c>
@@ -9741,7 +9688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13">
       <c r="A227">
         <v>1843</v>
       </c>
@@ -9782,7 +9729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13">
       <c r="A228">
         <v>1844</v>
       </c>
@@ -9823,7 +9770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13">
       <c r="A229">
         <v>1846</v>
       </c>
@@ -9864,7 +9811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13">
       <c r="A230">
         <v>1849</v>
       </c>
@@ -9905,7 +9852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13">
       <c r="A231">
         <v>1854</v>
       </c>
@@ -9946,7 +9893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13">
       <c r="A232">
         <v>1859</v>
       </c>
@@ -9987,7 +9934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13">
       <c r="A233">
         <v>1864</v>
       </c>
@@ -10028,7 +9975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13">
       <c r="A234">
         <v>1865</v>
       </c>
@@ -10036,7 +9983,7 @@
         <v>1</v>
       </c>
       <c r="C234">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="D234">
         <v>1.2</v>
@@ -10069,7 +10016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13">
       <c r="A235">
         <v>1868</v>
       </c>
@@ -10110,7 +10057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13">
       <c r="A236">
         <v>1870</v>
       </c>
@@ -10151,7 +10098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13">
       <c r="A237">
         <v>1871</v>
       </c>
@@ -10192,7 +10139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13">
       <c r="A238">
         <v>1872</v>
       </c>
@@ -10233,7 +10180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13">
       <c r="A239">
         <v>1875</v>
       </c>
@@ -10274,7 +10221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13">
       <c r="A240">
         <v>1877</v>
       </c>
@@ -10315,7 +10262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13">
       <c r="A241">
         <v>1882</v>
       </c>
@@ -10356,7 +10303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13">
       <c r="A242">
         <v>1883</v>
       </c>
@@ -10397,7 +10344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13">
       <c r="A243">
         <v>1884</v>
       </c>
@@ -10438,7 +10385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13">
       <c r="A244">
         <v>1888</v>
       </c>
@@ -10479,7 +10426,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13">
       <c r="A245">
         <v>1891</v>
       </c>
@@ -10520,7 +10467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13">
       <c r="A246">
         <v>1892</v>
       </c>
@@ -10561,7 +10508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13">
       <c r="A247">
         <v>1894</v>
       </c>
@@ -10602,7 +10549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13">
       <c r="A248">
         <v>1896</v>
       </c>
@@ -10643,7 +10590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13">
       <c r="A249">
         <v>1900</v>
       </c>
@@ -10684,7 +10631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13">
       <c r="A250">
         <v>1903</v>
       </c>
@@ -10725,7 +10672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13">
       <c r="A251">
         <v>1904</v>
       </c>
@@ -10766,7 +10713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13">
       <c r="A252">
         <v>1907</v>
       </c>
@@ -10807,7 +10754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13">
       <c r="A253">
         <v>1908</v>
       </c>
@@ -10848,7 +10795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13">
       <c r="A254">
         <v>1910</v>
       </c>
@@ -10889,7 +10836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13">
       <c r="A255">
         <v>1914</v>
       </c>
@@ -10930,7 +10877,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13">
       <c r="A256">
         <v>1915</v>
       </c>
@@ -10971,7 +10918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13">
       <c r="A257">
         <v>1917</v>
       </c>
@@ -11012,7 +10959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13">
       <c r="A258">
         <v>1922</v>
       </c>
@@ -11053,7 +11000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13">
       <c r="A259">
         <v>1924</v>
       </c>
@@ -11094,7 +11041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13">
       <c r="A260">
         <v>1925</v>
       </c>
@@ -11135,7 +11082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13">
       <c r="A261">
         <v>1926</v>
       </c>
@@ -11176,7 +11123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13">
       <c r="A262">
         <v>1931</v>
       </c>
@@ -11217,7 +11164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13">
       <c r="A263">
         <v>1935</v>
       </c>
@@ -11231,7 +11178,7 @@
         <v>0.1</v>
       </c>
       <c r="E263">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F263">
         <v>0.2</v>
@@ -11258,7 +11205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13">
       <c r="A264">
         <v>1936</v>
       </c>
@@ -11299,7 +11246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13">
       <c r="A265">
         <v>1938</v>
       </c>
@@ -11340,7 +11287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13">
       <c r="A266">
         <v>1940</v>
       </c>
@@ -11381,7 +11328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13">
       <c r="A267">
         <v>1945</v>
       </c>
@@ -11422,7 +11369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13">
       <c r="A268">
         <v>1947</v>
       </c>
@@ -11463,7 +11410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13">
       <c r="A269">
         <v>1949</v>
       </c>
@@ -11504,7 +11451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13">
       <c r="A270">
         <v>1953</v>
       </c>
@@ -11545,7 +11492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13">
       <c r="A271">
         <v>1954</v>
       </c>
@@ -11586,7 +11533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13">
       <c r="A272">
         <v>1955</v>
       </c>
@@ -11627,7 +11574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13">
       <c r="A273">
         <v>1963</v>
       </c>
@@ -11668,7 +11615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13">
       <c r="A274">
         <v>1964</v>
       </c>
@@ -11709,7 +11656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13">
       <c r="A275">
         <v>1972</v>
       </c>
@@ -11750,7 +11697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13">
       <c r="A276">
         <v>1974</v>
       </c>
@@ -11791,7 +11738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13">
       <c r="A277">
         <v>1977</v>
       </c>
@@ -11832,7 +11779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13">
       <c r="A278">
         <v>1978</v>
       </c>
@@ -11873,7 +11820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13">
       <c r="A279">
         <v>1990</v>
       </c>
@@ -11914,7 +11861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13">
       <c r="A280">
         <v>1993</v>
       </c>
@@ -11955,7 +11902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13">
       <c r="A281">
         <v>1994</v>
       </c>
@@ -11996,7 +11943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13">
       <c r="A282">
         <v>1996</v>
       </c>
@@ -12037,7 +11984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13">
       <c r="A283">
         <v>1998</v>
       </c>
@@ -12078,7 +12025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13">
       <c r="A284">
         <v>2002</v>
       </c>
@@ -12119,7 +12066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13">
       <c r="A285">
         <v>2004</v>
       </c>
@@ -12160,7 +12107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13">
       <c r="A286">
         <v>2006</v>
       </c>
@@ -12201,7 +12148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13">
       <c r="A287">
         <v>2008</v>
       </c>
@@ -12242,7 +12189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13">
       <c r="A288">
         <v>2024</v>
       </c>
@@ -12283,7 +12230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13">
       <c r="A289">
         <v>2031</v>
       </c>
@@ -12324,7 +12271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13">
       <c r="A290">
         <v>2035</v>
       </c>
@@ -12365,7 +12312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13">
       <c r="A291">
         <v>2036</v>
       </c>
@@ -12406,7 +12353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13">
       <c r="A292">
         <v>2043</v>
       </c>
@@ -12420,7 +12367,7 @@
         <v>1</v>
       </c>
       <c r="E292">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F292">
         <v>0.1</v>
@@ -12447,7 +12394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13">
       <c r="A293">
         <v>2050</v>
       </c>
@@ -12488,7 +12435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13">
       <c r="A294">
         <v>2051</v>
       </c>
@@ -12529,7 +12476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13">
       <c r="A295">
         <v>2053</v>
       </c>
@@ -12570,7 +12517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13">
       <c r="A296">
         <v>2054</v>
       </c>
@@ -12611,7 +12558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13">
       <c r="A297">
         <v>2055</v>
       </c>
@@ -12652,7 +12599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13">
       <c r="A298">
         <v>2065</v>
       </c>
@@ -12693,7 +12640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13">
       <c r="A299">
         <v>2067</v>
       </c>
@@ -12734,7 +12681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13">
       <c r="A300">
         <v>2068</v>
       </c>
@@ -12775,7 +12722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13">
       <c r="A301">
         <v>2082</v>
       </c>
@@ -12816,7 +12763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:13">
       <c r="A302">
         <v>2086</v>
       </c>
@@ -12857,7 +12804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13">
       <c r="A303">
         <v>2087</v>
       </c>
@@ -12898,7 +12845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13">
       <c r="A304">
         <v>2097</v>
       </c>
@@ -12939,7 +12886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13">
       <c r="A305">
         <v>2098</v>
       </c>
@@ -12980,7 +12927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:13">
       <c r="A306">
         <v>2100</v>
       </c>
@@ -13021,7 +12968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13">
       <c r="A307">
         <v>2101</v>
       </c>
@@ -13062,7 +13009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:13">
       <c r="A308">
         <v>2103</v>
       </c>
@@ -13103,7 +13050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:13">
       <c r="A309">
         <v>2106</v>
       </c>
@@ -13144,7 +13091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:13">
       <c r="A310">
         <v>2110</v>
       </c>
@@ -13185,7 +13132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:13">
       <c r="A311">
         <v>2112</v>
       </c>
@@ -13226,7 +13173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:13">
       <c r="A312">
         <v>2113</v>
       </c>
@@ -13267,7 +13214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:13">
       <c r="A313">
         <v>2114</v>
       </c>
@@ -13308,7 +13255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:13">
       <c r="A314">
         <v>2115</v>
       </c>
@@ -13349,7 +13296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:13">
       <c r="A315">
         <v>2116</v>
       </c>
@@ -13390,7 +13337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:13">
       <c r="A316">
         <v>2119</v>
       </c>
@@ -13431,7 +13378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:13">
       <c r="A317">
         <v>2126</v>
       </c>
@@ -13472,7 +13419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:13">
       <c r="A318">
         <v>2128</v>
       </c>
@@ -13513,7 +13460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:13">
       <c r="A319">
         <v>2129</v>
       </c>
@@ -13554,7 +13501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:13">
       <c r="A320">
         <v>2130</v>
       </c>
@@ -13595,7 +13542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:13">
       <c r="A321">
         <v>2131</v>
       </c>
@@ -13603,7 +13550,7 @@
         <v>1</v>
       </c>
       <c r="C321">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="D321">
         <v>2</v>
@@ -13636,7 +13583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:13">
       <c r="A322">
         <v>2137</v>
       </c>
@@ -13677,7 +13624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:13">
       <c r="A323">
         <v>2138</v>
       </c>
@@ -13718,7 +13665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:13">
       <c r="A324">
         <v>2139</v>
       </c>
@@ -13759,7 +13706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:13">
       <c r="A325">
         <v>2140</v>
       </c>
@@ -13800,7 +13747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:13">
       <c r="A326">
         <v>2141</v>
       </c>
@@ -13841,7 +13788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:13">
       <c r="A327">
         <v>2142</v>
       </c>
@@ -13882,7 +13829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:13">
       <c r="A328">
         <v>2143</v>
       </c>
@@ -13923,7 +13870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:13">
       <c r="A329">
         <v>2144</v>
       </c>
@@ -13964,7 +13911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:13">
       <c r="A330">
         <v>2149</v>
       </c>
@@ -14005,7 +13952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13">
       <c r="A331">
         <v>2151</v>
       </c>
@@ -14046,7 +13993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:13">
       <c r="A332">
         <v>2158</v>
       </c>
@@ -14087,7 +14034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:13">
       <c r="A333">
         <v>2160</v>
       </c>
@@ -14128,7 +14075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:13">
       <c r="A334">
         <v>2161</v>
       </c>
@@ -14169,7 +14116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13">
       <c r="A335">
         <v>2170</v>
       </c>
@@ -14210,7 +14157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:13">
       <c r="A336">
         <v>2175</v>
       </c>
@@ -14251,7 +14198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13">
       <c r="A337">
         <v>2178</v>
       </c>
@@ -14292,7 +14239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:13">
       <c r="A338">
         <v>2180</v>
       </c>
@@ -14333,7 +14280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:13">
       <c r="A339">
         <v>2181</v>
       </c>
@@ -14374,7 +14321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:13">
       <c r="A340">
         <v>2187</v>
       </c>
@@ -14415,7 +14362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13">
       <c r="A341">
         <v>2188</v>
       </c>
@@ -14456,7 +14403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:13">
       <c r="A342">
         <v>2190</v>
       </c>
@@ -14497,7 +14444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:13">
       <c r="A343">
         <v>2191</v>
       </c>
@@ -14538,7 +14485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:13">
       <c r="A344">
         <v>2194</v>
       </c>
@@ -14579,7 +14526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:13">
       <c r="A345">
         <v>2197</v>
       </c>
@@ -14620,7 +14567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:13">
       <c r="A346">
         <v>2201</v>
       </c>
@@ -14661,7 +14608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13">
       <c r="A347">
         <v>2205</v>
       </c>
@@ -14702,7 +14649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:13">
       <c r="A348">
         <v>2209</v>
       </c>
@@ -14743,7 +14690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:13">
       <c r="A349">
         <v>2211</v>
       </c>
@@ -14784,7 +14731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:13">
       <c r="A350">
         <v>2219</v>
       </c>
@@ -14792,7 +14739,7 @@
         <v>1</v>
       </c>
       <c r="C350">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="D350">
         <v>3</v>
@@ -14825,7 +14772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:13">
       <c r="A351">
         <v>2223</v>
       </c>
@@ -14866,7 +14813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:13">
       <c r="A352">
         <v>2224</v>
       </c>
@@ -14907,7 +14854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:13">
       <c r="A353">
         <v>2225</v>
       </c>
@@ -14948,7 +14895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:13">
       <c r="A354">
         <v>2226</v>
       </c>
@@ -14989,7 +14936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:13">
       <c r="A355">
         <v>2229</v>
       </c>
@@ -15030,7 +14977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:13">
       <c r="A356">
         <v>2231</v>
       </c>
@@ -15071,7 +15018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:13">
       <c r="A357">
         <v>2234</v>
       </c>
@@ -15112,7 +15059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:13">
       <c r="A358">
         <v>2236</v>
       </c>
@@ -15153,7 +15100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:13">
       <c r="A359">
         <v>2237</v>
       </c>
@@ -15194,7 +15141,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:13">
       <c r="A360">
         <v>2239</v>
       </c>
@@ -15235,7 +15182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:13">
       <c r="A361">
         <v>2243</v>
       </c>
@@ -15276,7 +15223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:13">
       <c r="A362">
         <v>2244</v>
       </c>
@@ -15317,7 +15264,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:13">
       <c r="A363">
         <v>2250</v>
       </c>
@@ -15358,7 +15305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:13">
       <c r="A364">
         <v>2255</v>
       </c>
@@ -15399,7 +15346,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:13">
       <c r="A365">
         <v>2262</v>
       </c>
@@ -15440,7 +15387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:13">
       <c r="A366">
         <v>2263</v>
       </c>
@@ -15481,7 +15428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:13">
       <c r="A367">
         <v>2265</v>
       </c>
@@ -15522,7 +15469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:13">
       <c r="A368">
         <v>2266</v>
       </c>
@@ -15563,7 +15510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:13">
       <c r="A369">
         <v>2272</v>
       </c>
@@ -15604,7 +15551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:13">
       <c r="A370">
         <v>2277</v>
       </c>
@@ -15645,7 +15592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:13">
       <c r="A371">
         <v>2281</v>
       </c>
